--- a/outputs/ML_Results/carown_LR_new/France_other.xlsx
+++ b/outputs/ML_Results/carown_LR_new/France_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ8" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ7" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ13" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ12" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ22" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ9" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ34" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9158485431967467</v>
+        <v>1.052459264591935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1237473220424798</v>
+        <v>0.07969313112462366</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0964908618583205</v>
+        <v>0.1230268732723221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7610662996035842</v>
+        <v>0.702410120324527</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9171795450608695</v>
+        <v>-0.9380952468638607</v>
       </c>
       <c r="C4" t="n">
-        <v>6.51644895033196e-07</v>
+        <v>3.184674858714054e-07</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7765680975062625</v>
+        <v>-0.7403405015189575</v>
       </c>
       <c r="C5" t="n">
-        <v>4.010508398833781e-05</v>
+        <v>9.305501609533363e-05</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9603790386100746</v>
+        <v>-0.9910472602476087</v>
       </c>
       <c r="C6" t="n">
-        <v>3.853713568416384e-06</v>
+        <v>1.405587466667157e-06</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03276741861026992</v>
+        <v>-0.01811217696851945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7865175550407144</v>
+        <v>0.8811074395053662</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008569518555408632</v>
+        <v>0.0008802738157887</v>
       </c>
       <c r="C8" t="n">
-        <v>2.462969887023793e-36</v>
+        <v>3.41848869039523e-38</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.007978500725340086</v>
+        <v>-0.009097560011864562</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01551300659133025</v>
+        <v>0.005851045853841886</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6122435768123891</v>
+        <v>0.6230571445203877</v>
       </c>
       <c r="C10" t="n">
-        <v>3.057522296692243e-08</v>
+        <v>2.233732680084189e-08</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8099011764660939</v>
+        <v>0.7310361856241692</v>
       </c>
       <c r="C11" t="n">
-        <v>7.243582017416071e-11</v>
+        <v>3.189237087936555e-09</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3323179900541653</v>
+        <v>0.2777277107723115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05432772571060971</v>
+        <v>0.1081654462099131</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.45267641035201e-05</v>
+        <v>-4.123546610521954e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3800619723544124</v>
+        <v>0.2910126096013318</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.988119053395434e-10</v>
+        <v>-1.256966413265785e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9906563023130789</v>
+        <v>0.9703693873141702</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.005443676739173102</v>
+        <v>-0.01237841807200521</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8706892751936843</v>
+        <v>0.7118101842701754</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04223553438976357</v>
+        <v>0.05110113888493338</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03962304809526343</v>
+        <v>0.01407017185678972</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.192501099774445</v>
+        <v>-1.3610076919351</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01151466044942355</v>
+        <v>0.003692465615221257</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008658738762718604</v>
+        <v>-0.008550807005624056</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007009853970138468</v>
+        <v>0.007500338239545093</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.616050557525706e-05</v>
+        <v>-0.0009417307893497204</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9800081773938942</v>
+        <v>0.7870421186081089</v>
       </c>
     </row>
     <row r="20">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6915967354717301</v>
+        <v>0.6626083386605626</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07921151137029049</v>
+        <v>0.09184025661028301</v>
       </c>
     </row>
     <row r="21">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1927292296361411</v>
+        <v>0.1722225224856056</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7215781844713787</v>
+        <v>0.7520897116679262</v>
       </c>
     </row>
     <row r="22">
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001070499473482188</v>
+        <v>-7.945827786693038e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2709699439507224</v>
+        <v>0.4095299731193324</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9609173903227214</v>
+        <v>0.282405189721579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1150177212686352</v>
+        <v>0.6379514543692162</v>
       </c>
     </row>
     <row r="3">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1370672214857326</v>
+        <v>0.1515196204051129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6760391252740021</v>
+        <v>0.6328292309182824</v>
       </c>
     </row>
     <row r="4">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9651734920614499</v>
+        <v>-0.9320547555155483</v>
       </c>
       <c r="C4" t="n">
-        <v>2.100352333740319e-07</v>
+        <v>3.227385188797016e-07</v>
       </c>
     </row>
     <row r="5">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8338094958663882</v>
+        <v>-0.751397990193851</v>
       </c>
       <c r="C5" t="n">
-        <v>1.29593115313181e-05</v>
+        <v>6.860640384058448e-05</v>
       </c>
     </row>
     <row r="6">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9194285613706004</v>
+        <v>-0.9447206012143925</v>
       </c>
       <c r="C6" t="n">
-        <v>1.347104460164357e-05</v>
+        <v>5.502685094813035e-06</v>
       </c>
     </row>
     <row r="7">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03026283824497374</v>
+        <v>-0.05167357510636766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8048503364745891</v>
+        <v>0.6663197415664505</v>
       </c>
     </row>
     <row r="8">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008871534431919754</v>
+        <v>0.0008883196468257521</v>
       </c>
       <c r="C8" t="n">
-        <v>2.176633789477786e-37</v>
+        <v>4.739618757289358e-39</v>
       </c>
     </row>
     <row r="9">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01109794503954853</v>
+        <v>-0.009876802555473593</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008958331702622407</v>
+        <v>0.002775796285415469</v>
       </c>
     </row>
     <row r="10">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6662937344435856</v>
+        <v>0.5529574198813535</v>
       </c>
       <c r="C10" t="n">
-        <v>3.857091970072853e-09</v>
+        <v>5.540442100743983e-07</v>
       </c>
     </row>
     <row r="11">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7066668128028897</v>
+        <v>0.7381108982451334</v>
       </c>
       <c r="C11" t="n">
-        <v>2.071230053583856e-08</v>
+        <v>2.502074438488916e-09</v>
       </c>
     </row>
     <row r="12">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.366358541262154</v>
+        <v>0.3625743436304028</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03489605430993204</v>
+        <v>0.03630372793901705</v>
       </c>
     </row>
     <row r="13">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.012342965563235e-05</v>
+        <v>-4.50032691344e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07645491597899097</v>
+        <v>0.2508464523188014</v>
       </c>
     </row>
     <row r="14">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.203174967307837e-08</v>
+        <v>3.881857715805819e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7309513466318351</v>
+        <v>0.9095949870611051</v>
       </c>
     </row>
     <row r="15">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.007516277900017444</v>
+        <v>-0.001610775268903264</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8247564094722402</v>
+        <v>0.9616223198706871</v>
       </c>
     </row>
     <row r="16">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04760823853104413</v>
+        <v>0.05595254861350532</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02151147731142471</v>
+        <v>0.007108704207640319</v>
       </c>
     </row>
     <row r="17">
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.26154251876587</v>
+        <v>-1.315452325355317</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007328433057103039</v>
+        <v>0.004467452414166665</v>
       </c>
     </row>
     <row r="18">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006045437942974393</v>
+        <v>-0.003573269838574558</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06214998162540743</v>
+        <v>0.2691929433905171</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001286258158067639</v>
+        <v>0.003367028175550923</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7217217161702226</v>
+        <v>0.3524814432385364</v>
       </c>
     </row>
     <row r="20">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.62437070318135</v>
+        <v>0.7496885320542556</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1153253969169228</v>
+        <v>0.05595962467319923</v>
       </c>
     </row>
     <row r="21">
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01961965605186463</v>
+        <v>0.6111651060019075</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9716683303733339</v>
+        <v>0.2626483734222046</v>
       </c>
     </row>
     <row r="22">
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-7.047564813709698e-05</v>
+        <v>-0.0001030949406296839</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4669480661615963</v>
+        <v>0.2800472280157218</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8681914245799462</v>
+        <v>1.069056281873921</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1466711306946409</v>
+        <v>0.07912662463644633</v>
       </c>
     </row>
     <row r="3">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1572118248595051</v>
+        <v>0.2589661579919217</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6214577866664306</v>
+        <v>0.4338750800770835</v>
       </c>
     </row>
     <row r="4">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9455092551783508</v>
+        <v>-0.9945553481551985</v>
       </c>
       <c r="C4" t="n">
-        <v>2.876798807013521e-07</v>
+        <v>1.100548287167383e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7510489562827221</v>
+        <v>-0.8636592549857918</v>
       </c>
       <c r="C5" t="n">
-        <v>8.090556377535841e-05</v>
+        <v>8.070568641878399e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8741673097887017</v>
+        <v>-0.9869777166473934</v>
       </c>
       <c r="C6" t="n">
-        <v>2.614813676525518e-05</v>
+        <v>1.896440420167547e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04547795481277711</v>
+        <v>-0.05407942315817137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7093085264334067</v>
+        <v>0.663680601192251</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009180509328659537</v>
+        <v>0.0008551772771457872</v>
       </c>
       <c r="C8" t="n">
-        <v>4.398409581181941e-40</v>
+        <v>1.050514629184724e-35</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009275919998684472</v>
+        <v>-0.009687829662078724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005282442737385241</v>
+        <v>0.003447331613645736</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5686612829361412</v>
+        <v>0.6924454729325261</v>
       </c>
       <c r="C10" t="n">
-        <v>3.003859846327669e-07</v>
+        <v>7.463895072299302e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6849518618460203</v>
+        <v>0.6958417714235661</v>
       </c>
       <c r="C11" t="n">
-        <v>4.421534034578632e-08</v>
+        <v>2.625149535594818e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2811235805232279</v>
+        <v>0.2822992275657387</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1090109477138966</v>
+        <v>0.104794525498153</v>
       </c>
     </row>
     <row r="13">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.493914887851478e-05</v>
+        <v>-5.060828273027881e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.522858919847363</v>
+        <v>0.1996830003931113</v>
       </c>
     </row>
     <row r="14">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.364647356392325e-09</v>
+        <v>1.484809919578547e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7815098893344423</v>
+        <v>0.6703538698417253</v>
       </c>
     </row>
     <row r="15">
@@ -1253,10 +1253,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01920653389207102</v>
+        <v>-0.001451558632134601</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5696768129218803</v>
+        <v>0.9657372412576365</v>
       </c>
     </row>
     <row r="16">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06031741595790778</v>
+        <v>0.04532107333160579</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004233553518690539</v>
+        <v>0.02745625121890965</v>
       </c>
     </row>
     <row r="17">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.329513279628026</v>
+        <v>-1.236914740849941</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004305526025455689</v>
+        <v>0.008519263345581221</v>
       </c>
     </row>
     <row r="18">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.00684889735234791</v>
+        <v>-0.007395773602059286</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03320299056779866</v>
+        <v>0.02132251051968234</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.924267723685059e-05</v>
+        <v>0.0003116225338089745</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9956037310989021</v>
+        <v>0.930602110675198</v>
       </c>
     </row>
     <row r="20">
@@ -1318,10 +1318,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5545161224040069</v>
+        <v>0.6854785001711979</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1590871258849815</v>
+        <v>0.08524909625138141</v>
       </c>
     </row>
     <row r="21">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4618840072066979</v>
+        <v>0.1921306432819596</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3955393352099728</v>
+        <v>0.7271417955673835</v>
       </c>
     </row>
     <row r="22">
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001168506646564375</v>
+        <v>-0.0001304593410156365</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2229542922126183</v>
+        <v>0.1789963056929488</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.091802169692738</v>
+        <v>0.8759904896507029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07363358245372494</v>
+        <v>0.1412857697787584</v>
       </c>
     </row>
     <row r="3">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1435033213438026</v>
+        <v>0.04614755663888952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.65799884970141</v>
+        <v>0.8856638825180506</v>
       </c>
     </row>
     <row r="4">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.023388764511142</v>
+        <v>-0.9036897913646514</v>
       </c>
       <c r="C4" t="n">
-        <v>2.779541941280814e-08</v>
+        <v>1.462339091924437e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.880716887709846</v>
+        <v>-0.7317684257685975</v>
       </c>
       <c r="C5" t="n">
-        <v>3.598743917027251e-06</v>
+        <v>0.0001477683463314682</v>
       </c>
     </row>
     <row r="6">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.068195997415219</v>
+        <v>-0.9947342382162701</v>
       </c>
       <c r="C6" t="n">
-        <v>2.457773541647841e-07</v>
+        <v>2.315654965058502e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05518467749963111</v>
+        <v>0.02056995371914003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6496494414228415</v>
+        <v>0.8698728328047828</v>
       </c>
     </row>
     <row r="8">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008618886673860451</v>
+        <v>0.0009144275949978468</v>
       </c>
       <c r="C8" t="n">
-        <v>3.497863128679808e-37</v>
+        <v>1.065567528472978e-39</v>
       </c>
     </row>
     <row r="9">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01042308940463644</v>
+        <v>-0.009407664891640603</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001588049915060551</v>
+        <v>0.004775019642570691</v>
       </c>
     </row>
     <row r="10">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5763102804966329</v>
+        <v>0.6135750182784857</v>
       </c>
       <c r="C10" t="n">
-        <v>1.749843910414311e-07</v>
+        <v>2.599124076281704e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7414512392539104</v>
+        <v>0.6711496317499603</v>
       </c>
       <c r="C11" t="n">
-        <v>2.31402967848854e-09</v>
+        <v>7.244824804457725e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.387923081569329</v>
+        <v>0.3196133793172387</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02634931137565431</v>
+        <v>0.06663679084137145</v>
       </c>
     </row>
     <row r="13">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.986289936571392e-05</v>
+        <v>-3.185277719452416e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.613703987001442</v>
+        <v>0.4166644998563633</v>
       </c>
     </row>
     <row r="14">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.269538593576747e-10</v>
+        <v>1.632022304236915e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9877298738343081</v>
+        <v>0.9625288309057227</v>
       </c>
     </row>
     <row r="15">
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004645683385427278</v>
+        <v>-0.005702475911114742</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8913139065369303</v>
+        <v>0.8640625722962003</v>
       </c>
     </row>
     <row r="16">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03789505761016199</v>
+        <v>0.03678563364813969</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07338224371965947</v>
+        <v>0.07320048362189782</v>
       </c>
     </row>
     <row r="17">
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.234149664989278</v>
+        <v>-1.345798734905178</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00762749657782074</v>
+        <v>0.004003692039649163</v>
       </c>
     </row>
     <row r="18">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.00825916562182649</v>
+        <v>-0.008813354877521816</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01086788517794872</v>
+        <v>0.005939763613640676</v>
       </c>
     </row>
     <row r="19">
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0001042714309933676</v>
+        <v>-7.48827740930909e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9771393125479578</v>
+        <v>0.9823797940623828</v>
       </c>
     </row>
     <row r="20">
@@ -1627,10 +1627,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8437747961193637</v>
+        <v>0.763510473301807</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03303318687134205</v>
+        <v>0.05271011154054765</v>
       </c>
     </row>
     <row r="21">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4993543991106751</v>
+        <v>0.4151226325696168</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3596344188592469</v>
+        <v>0.4459557229389604</v>
       </c>
     </row>
     <row r="22">
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001823489698032756</v>
+        <v>-0.000124662770588026</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05655270851322641</v>
+        <v>0.196031118407972</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7750599940938884</v>
+        <v>0.7462430170234023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1991356216130812</v>
+        <v>0.2173716817597487</v>
       </c>
     </row>
     <row r="3">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1888795408135825</v>
+        <v>0.2802613732176844</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5594465665061878</v>
+        <v>0.3943679184569987</v>
       </c>
     </row>
     <row r="4">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9147767860183537</v>
+        <v>-0.9688873818610059</v>
       </c>
       <c r="C4" t="n">
-        <v>7.35727814272965e-07</v>
+        <v>1.852321114785655e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7151507553457503</v>
+        <v>-0.7761238511700668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001746891166666346</v>
+        <v>4.901751217390991e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.005633257715893</v>
+        <v>-0.814212195012431</v>
       </c>
       <c r="C6" t="n">
-        <v>1.350407533039483e-06</v>
+        <v>0.0001217076310159699</v>
       </c>
     </row>
     <row r="7">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0293027362650212</v>
+        <v>-0.06407776859436336</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8096720449103345</v>
+        <v>0.6010300320555325</v>
       </c>
     </row>
     <row r="8">
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008858947596359587</v>
+        <v>0.0008891848883106724</v>
       </c>
       <c r="C8" t="n">
-        <v>2.320160933455781e-38</v>
+        <v>1.641471363859698e-37</v>
       </c>
     </row>
     <row r="9">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009751598716947491</v>
+        <v>-0.009838045517903189</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003270129261811807</v>
+        <v>0.003165173002953542</v>
       </c>
     </row>
     <row r="10">
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6257315061876325</v>
+        <v>0.621020246087979</v>
       </c>
       <c r="C10" t="n">
-        <v>2.035951117562929e-08</v>
+        <v>2.649794681412781e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7178900517474494</v>
+        <v>0.7175657463174676</v>
       </c>
       <c r="C11" t="n">
-        <v>8.637309180205719e-09</v>
+        <v>8.477782721249403e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.348011486758214</v>
+        <v>0.3900158302827115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04503410802679436</v>
+        <v>0.02558623018458133</v>
       </c>
     </row>
     <row r="13">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.239070841085332e-05</v>
+        <v>-3.203028944611907e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4083374335492005</v>
+        <v>0.4141502548848911</v>
       </c>
     </row>
     <row r="14">
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.96895302036008e-09</v>
+        <v>-4.281312670528596e-10</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9072035345664806</v>
+        <v>0.9899969420580732</v>
       </c>
     </row>
     <row r="15">
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.007962564570747415</v>
+        <v>-0.008208435411344906</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8125060883783798</v>
+        <v>0.8093932002924732</v>
       </c>
     </row>
     <row r="16">
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04962155827831172</v>
+        <v>0.05412067579997088</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01641350871667857</v>
+        <v>0.01044282414527759</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.515632585539296</v>
+        <v>-1.107421927227968</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001135894837914076</v>
+        <v>0.01686868737806842</v>
       </c>
     </row>
     <row r="18">
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.007459053471292766</v>
+        <v>-0.006784036251720114</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01987468275563911</v>
+        <v>0.03759537306035401</v>
       </c>
     </row>
     <row r="19">
@@ -1923,10 +1923,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0006489978126400741</v>
+        <v>0.0008961230821223872</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8542055246626589</v>
+        <v>0.801503563465354</v>
       </c>
     </row>
     <row r="20">
@@ -1936,10 +1936,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7916556736033139</v>
+        <v>0.7723556926212894</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04530819397070065</v>
+        <v>0.05180532019119533</v>
       </c>
     </row>
     <row r="21">
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3027594770652009</v>
+        <v>0.4805149799038491</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5779242701326319</v>
+        <v>0.3776884573439967</v>
       </c>
     </row>
     <row r="22">
@@ -1962,10 +1962,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001007478066066556</v>
+        <v>-0.0001376515781378548</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2940403437636796</v>
+        <v>0.1530171586564741</v>
       </c>
     </row>
   </sheetData>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7113116760796329</v>
+        <v>0.7807938503552682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2392623220123891</v>
+        <v>0.1903699903689101</v>
       </c>
     </row>
     <row r="3">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2413037160306673</v>
+        <v>0.07547567139465254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4500411841459594</v>
+        <v>0.8154531719635461</v>
       </c>
     </row>
     <row r="4">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.993880628327807</v>
+        <v>-0.8554772205382376</v>
       </c>
       <c r="C4" t="n">
-        <v>6.702473418096835e-08</v>
+        <v>3.945611076320112e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7954504270524582</v>
+        <v>-0.71711311842796</v>
       </c>
       <c r="C5" t="n">
-        <v>2.739275278675683e-05</v>
+        <v>0.0001690431867521966</v>
       </c>
     </row>
     <row r="6">
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8857531776579594</v>
+        <v>-0.8209151525864591</v>
       </c>
       <c r="C6" t="n">
-        <v>2.338809123022071e-05</v>
+        <v>0.0001079069348610308</v>
       </c>
     </row>
     <row r="7">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.06727194879826004</v>
+        <v>-0.01941067791442047</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5780434637044549</v>
+        <v>0.8738677246709585</v>
       </c>
     </row>
     <row r="8">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009324119528808751</v>
+        <v>0.000967187209270529</v>
       </c>
       <c r="C8" t="n">
-        <v>1.048738215165023e-40</v>
+        <v>6.807816288087683e-42</v>
       </c>
     </row>
     <row r="9">
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01118694657631488</v>
+        <v>-0.00986241211826374</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0007281261544885914</v>
+        <v>0.00334384552443532</v>
       </c>
     </row>
     <row r="10">
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6472371931298722</v>
+        <v>0.6564338990761435</v>
       </c>
       <c r="C10" t="n">
-        <v>4.904077303863873e-09</v>
+        <v>4.224378932066125e-09</v>
       </c>
     </row>
     <row r="11">
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6600551018574374</v>
+        <v>0.6471069716751013</v>
       </c>
       <c r="C11" t="n">
-        <v>1.077733023683544e-07</v>
+        <v>3.06559664246623e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4050607207257753</v>
+        <v>0.2475572167852249</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02024722657267923</v>
+        <v>0.164139188816503</v>
       </c>
     </row>
     <row r="13">
@@ -2154,10 +2154,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.920303222141751e-05</v>
+        <v>-1.831872361881428e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4559580125136313</v>
+        <v>0.6409341488076099</v>
       </c>
     </row>
     <row r="14">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.479435472038533e-08</v>
+        <v>-9.35042839581977e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6621995011642308</v>
+        <v>0.7846865168378336</v>
       </c>
     </row>
     <row r="15">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002749917315453731</v>
+        <v>0.001368836031609474</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9350457474159208</v>
+        <v>0.968168309845182</v>
       </c>
     </row>
     <row r="16">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05648814752362109</v>
+        <v>0.05378897779896388</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007475967668455468</v>
+        <v>0.01134378935263846</v>
       </c>
     </row>
     <row r="17">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.8321143973602926</v>
+        <v>-1.081099684235525</v>
       </c>
       <c r="C17" t="n">
-        <v>0.075531989602766</v>
+        <v>0.02103649406126203</v>
       </c>
     </row>
     <row r="18">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006058637834158011</v>
+        <v>-0.006609346838326502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06097205175909974</v>
+        <v>0.0402277495104565</v>
       </c>
     </row>
     <row r="19">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0008045239782318122</v>
+        <v>-0.0006985150422672962</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8205253762757001</v>
+        <v>0.8380682629059657</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7117639350442345</v>
+        <v>0.6077476065053217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07342255846636385</v>
+        <v>0.1259212992296549</v>
       </c>
     </row>
     <row r="21">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7501650604889794</v>
+        <v>0.6097992560906325</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1694595071198792</v>
+        <v>0.2664243174615538</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001426618882681421</v>
+        <v>-0.0001811467333519254</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1384459182855697</v>
+        <v>0.0632663858839595</v>
       </c>
     </row>
   </sheetData>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8508670045763732</v>
+        <v>0.883351576645155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1526468453371209</v>
+        <v>0.14623522837687</v>
       </c>
     </row>
     <row r="3">
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3150458362518984</v>
+        <v>0.2184716222021323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3507822599626917</v>
+        <v>0.4999585630595407</v>
       </c>
     </row>
     <row r="4">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9365248523156786</v>
+        <v>-0.901494617085897</v>
       </c>
       <c r="C4" t="n">
-        <v>1.093670857178707e-06</v>
+        <v>1.238788763955989e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7916200916560072</v>
+        <v>-0.742771244401509</v>
       </c>
       <c r="C5" t="n">
-        <v>6.01522311040013e-05</v>
+        <v>0.0001027515142857398</v>
       </c>
     </row>
     <row r="6">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8460291322701025</v>
+        <v>-0.9129259530014833</v>
       </c>
       <c r="C6" t="n">
-        <v>6.437577040062033e-05</v>
+        <v>1.004716868852737e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.06131713001388065</v>
+        <v>-0.04914278144272961</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6380997124160074</v>
+        <v>0.6877444920318928</v>
       </c>
     </row>
     <row r="8">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009329242977197956</v>
+        <v>0.0009278107260929953</v>
       </c>
       <c r="C8" t="n">
-        <v>4.195583930048633e-40</v>
+        <v>2.07150957427212e-40</v>
       </c>
     </row>
     <row r="9">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.007092722214921827</v>
+        <v>-0.009095978786465833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03476913658164552</v>
+        <v>0.006287751608923434</v>
       </c>
     </row>
     <row r="10">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6099896743468677</v>
+        <v>0.5563280410715686</v>
       </c>
       <c r="C10" t="n">
-        <v>4.258606786769369e-08</v>
+        <v>5.826530871620452e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6572565646002483</v>
+        <v>0.7013398067158155</v>
       </c>
       <c r="C11" t="n">
-        <v>1.736832124426615e-07</v>
+        <v>1.997317317626333e-08</v>
       </c>
     </row>
     <row r="12">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2306740548610176</v>
+        <v>0.3813514564378364</v>
       </c>
       <c r="C12" t="n">
-        <v>0.190588670779013</v>
+        <v>0.02987093844669724</v>
       </c>
     </row>
     <row r="13">
@@ -2463,10 +2463,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.452172399491732e-05</v>
+        <v>-6.930468985159216e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.169150547855493</v>
+        <v>0.08305014696047003</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.748128440001483e-08</v>
+        <v>2.09877075951343e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6180130189828248</v>
+        <v>0.5510800180949621</v>
       </c>
     </row>
     <row r="15">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.005566473891158613</v>
+        <v>-0.004680783181544073</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8705258576816084</v>
+        <v>0.8914643378138158</v>
       </c>
     </row>
     <row r="16">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04541349943235</v>
+        <v>0.04757212503064177</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02787036216035492</v>
+        <v>0.02277698602608021</v>
       </c>
     </row>
     <row r="17">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.55696396680783</v>
+        <v>-1.622734426739775</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0009468873024207905</v>
+        <v>0.0005145340285027671</v>
       </c>
     </row>
     <row r="18">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008889083158134274</v>
+        <v>-0.0080190145695086</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005784336050635133</v>
+        <v>0.01296471875223212</v>
       </c>
     </row>
     <row r="19">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0008545818098742443</v>
+        <v>3.975344130732636e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7972055780773369</v>
+        <v>0.991086613163212</v>
       </c>
     </row>
     <row r="20">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.940634173756751</v>
+        <v>0.7698298880038942</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01905752763652071</v>
+        <v>0.05388096587496249</v>
       </c>
     </row>
     <row r="21">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5220308004054595</v>
+        <v>0.04010618825077526</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3484796379850282</v>
+        <v>0.9422302300891302</v>
       </c>
     </row>
     <row r="22">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-7.092804902732691e-05</v>
+        <v>-2.775371306018816e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4670522412024887</v>
+        <v>0.7721732416977373</v>
       </c>
     </row>
   </sheetData>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7584113632014055</v>
+        <v>0.880260334702717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206497932789288</v>
+        <v>0.1397586920571119</v>
       </c>
     </row>
     <row r="3">
@@ -2642,10 +2642,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1671512411154079</v>
+        <v>0.1283747863516164</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6071856267148927</v>
+        <v>0.6918903536768348</v>
       </c>
     </row>
     <row r="4">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8888550623976084</v>
+        <v>-1.023834465238183</v>
       </c>
       <c r="C4" t="n">
-        <v>2.06943468220426e-06</v>
+        <v>3.89347894750427e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6487571370110732</v>
+        <v>-0.841324939177547</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007748808632651843</v>
+        <v>1.115411885519446e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8959183203970789</v>
+        <v>-0.8953133804763206</v>
       </c>
       <c r="C6" t="n">
-        <v>1.560280461507567e-05</v>
+        <v>2.170365731274481e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003058355206941914</v>
+        <v>-0.05751915122491337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9805500153759145</v>
+        <v>0.6440152052476271</v>
       </c>
     </row>
     <row r="8">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008710811528343001</v>
+        <v>0.0008923530250908016</v>
       </c>
       <c r="C8" t="n">
-        <v>2.533493309866529e-37</v>
+        <v>5.855686103925169e-39</v>
       </c>
     </row>
     <row r="9">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009505094392494228</v>
+        <v>-0.008773835459475141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003855213441221584</v>
+        <v>0.008184056334875765</v>
       </c>
     </row>
     <row r="10">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7124411764611813</v>
+        <v>0.6137327509080795</v>
       </c>
       <c r="C10" t="n">
-        <v>1.943454739180679e-10</v>
+        <v>3.187606884114233e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.64392128603592</v>
+        <v>0.7336033837037875</v>
       </c>
       <c r="C11" t="n">
-        <v>2.055340943216427e-07</v>
+        <v>4.209342147217017e-09</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.375276019865121</v>
+        <v>0.3500303834312133</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02984864530734313</v>
+        <v>0.04512532359991291</v>
       </c>
     </row>
     <row r="13">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.201700533340511e-05</v>
+        <v>-3.044748808726691e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1845540740238557</v>
+        <v>0.4411802503390442</v>
       </c>
     </row>
     <row r="14">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.080704257643543e-09</v>
+        <v>-1.059814484659516e-09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.83951004131841</v>
+        <v>0.976100619415053</v>
       </c>
     </row>
     <row r="15">
@@ -2798,10 +2798,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006990489840073516</v>
+        <v>-0.02058191232237621</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8338084136035653</v>
+        <v>0.5382238419766601</v>
       </c>
     </row>
     <row r="16">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04091793638421828</v>
+        <v>0.04413033927667254</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0438219035089351</v>
+        <v>0.0337605598223232</v>
       </c>
     </row>
     <row r="17">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.288487994123105</v>
+        <v>-1.666685062869166</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00541066546521366</v>
+        <v>0.0003925628063892262</v>
       </c>
     </row>
     <row r="18">
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.006287952592521428</v>
+        <v>-0.007421714815735616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04976848577538825</v>
+        <v>0.02026135485606936</v>
       </c>
     </row>
     <row r="19">
@@ -2850,10 +2850,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.696475030126241e-06</v>
+        <v>0.0005358149711820715</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9996124527516524</v>
+        <v>0.876823667206464</v>
       </c>
     </row>
     <row r="20">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6575542292255512</v>
+        <v>0.8176631258231498</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09453568992803911</v>
+        <v>0.03868891078853139</v>
       </c>
     </row>
     <row r="21">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3711244511375913</v>
+        <v>0.3736951236681861</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4960165387480928</v>
+        <v>0.4946087983000271</v>
       </c>
     </row>
     <row r="22">
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-8.685077428782466e-05</v>
+        <v>-0.0001051270571223106</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3632496689597096</v>
+        <v>0.2760718822287366</v>
       </c>
     </row>
   </sheetData>
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6522306300655668</v>
+        <v>1.021482239201063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2742291816038503</v>
+        <v>0.09071594199384092</v>
       </c>
     </row>
     <row r="3">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02710841582613512</v>
+        <v>0.1941878446062356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9337798121518334</v>
+        <v>0.5532866252053797</v>
       </c>
     </row>
     <row r="4">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8981056188464982</v>
+        <v>-0.9593604662059212</v>
       </c>
       <c r="C4" t="n">
-        <v>1.296154682591885e-06</v>
+        <v>3.179064524318294e-07</v>
       </c>
     </row>
     <row r="5">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.77968618839417</v>
+        <v>-0.8002407413895742</v>
       </c>
       <c r="C5" t="n">
-        <v>4.582900049320887e-05</v>
+        <v>3.389714929408004e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2990,10 +2990,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.884112423681683</v>
+        <v>-0.9510996038557407</v>
       </c>
       <c r="C6" t="n">
-        <v>2.844610122699334e-05</v>
+        <v>5.606871895031648e-06</v>
       </c>
     </row>
     <row r="7">
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01078462173289752</v>
+        <v>-0.03502060000498107</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9297964220672605</v>
+        <v>0.778988667132389</v>
       </c>
     </row>
     <row r="8">
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009593416841320375</v>
+        <v>0.0008953682852014914</v>
       </c>
       <c r="C8" t="n">
-        <v>1.285144120822654e-41</v>
+        <v>6.230239534194325e-38</v>
       </c>
     </row>
     <row r="9">
@@ -3029,10 +3029,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009328161312391101</v>
+        <v>-0.01027746775129882</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005453291246434514</v>
+        <v>0.001867518132764955</v>
       </c>
     </row>
     <row r="10">
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.554023570163293</v>
+        <v>0.6312149960284449</v>
       </c>
       <c r="C10" t="n">
-        <v>6.038565635586121e-07</v>
+        <v>1.316882042488396e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7081544995635592</v>
+        <v>0.6937430606894518</v>
       </c>
       <c r="C11" t="n">
-        <v>1.701811318098683e-08</v>
+        <v>3.65981355345181e-08</v>
       </c>
     </row>
     <row r="12">
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2836512610707305</v>
+        <v>0.4091117894869643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1095140375815315</v>
+        <v>0.01823207733681999</v>
       </c>
     </row>
     <row r="13">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.314199432890094e-05</v>
+        <v>-4.051673503919984e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2738256794062631</v>
+        <v>0.2994613196358544</v>
       </c>
     </row>
     <row r="14">
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.061345099635828e-08</v>
+        <v>-1.139703419134766e-08</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7621971745552951</v>
+        <v>0.7343393368019452</v>
       </c>
     </row>
     <row r="15">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.009046397185212527</v>
+        <v>0.008495920270744582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7888226984159881</v>
+        <v>0.8002740586097987</v>
       </c>
     </row>
     <row r="16">
@@ -3120,10 +3120,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04642079873372572</v>
+        <v>0.03898879069163224</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02609510592209137</v>
+        <v>0.05571968367148598</v>
       </c>
     </row>
     <row r="17">
@@ -3133,10 +3133,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.66916629202825</v>
+        <v>-1.171014317193096</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003442983603246423</v>
+        <v>0.01197633279609517</v>
       </c>
     </row>
     <row r="18">
@@ -3146,10 +3146,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.005858081895651518</v>
+        <v>-0.007022696131806161</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06802394870812666</v>
+        <v>0.02973357315978437</v>
       </c>
     </row>
     <row r="19">
@@ -3159,10 +3159,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0008687593511935175</v>
+        <v>-0.0008260765231555671</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8023887058718528</v>
+        <v>0.8133126835122515</v>
       </c>
     </row>
     <row r="20">
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6933680644566598</v>
+        <v>0.6703486821248291</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07754128207435149</v>
+        <v>0.0888191545870005</v>
       </c>
     </row>
     <row r="21">
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2899511782672675</v>
+        <v>0.5283762715582903</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5979359598325318</v>
+        <v>0.3312562228308057</v>
       </c>
     </row>
     <row r="22">
@@ -3198,10 +3198,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001058775609242353</v>
+        <v>-9.674819744253878e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2726681206323823</v>
+        <v>0.3139419891785925</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/France_other.xlsx
+++ b/outputs/ML_Results/carown_LR_new/France_other.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,270 +466,179 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.052459264591935</v>
+        <v>-0.9022741718529003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07969313112462366</v>
+        <v>0.04606382145275922</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1230268732723221</v>
+        <v>0.2654953494154892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.702410120324527</v>
+        <v>1.02109913108611e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9380952468638607</v>
+        <v>0.0009883403203802775</v>
       </c>
       <c r="C4" t="n">
-        <v>3.184674858714054e-07</v>
+        <v>1.821870921855563e-50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7403405015189575</v>
+        <v>-0.007344397069506936</v>
       </c>
       <c r="C5" t="n">
-        <v>9.305501609533363e-05</v>
+        <v>0.02074630260279798</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9910472602476087</v>
+        <v>0.6105200634913563</v>
       </c>
       <c r="C6" t="n">
-        <v>1.405587466667157e-06</v>
+        <v>3.429849635777956e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01811217696851945</v>
+        <v>0.6446353610839173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8811074395053662</v>
+        <v>7.905572699396974e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008802738157887</v>
+        <v>0.1877738285523578</v>
       </c>
       <c r="C8" t="n">
-        <v>3.41848869039523e-38</v>
+        <v>0.2639392454290973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009097560011864562</v>
+        <v>-8.725336737102831e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005851045853841886</v>
+        <v>1.905485324452592e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6230571445203877</v>
+        <v>-0.01207835052879324</v>
       </c>
       <c r="C10" t="n">
-        <v>2.233732680084189e-08</v>
+        <v>0.7159130252544639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7310361856241692</v>
+        <v>0.06828637221086895</v>
       </c>
       <c r="C11" t="n">
-        <v>3.189237087936555e-09</v>
+        <v>0.0004880346212859287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2777277107723115</v>
+        <v>-1.427134626149965</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1081654462099131</v>
+        <v>0.0006993921350176076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.123546610521954e-05</v>
+        <v>0.003313266561422312</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2910126096013318</v>
+        <v>0.3153647724993436</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.256966413265785e-09</v>
+        <v>0.4088083049840874</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9703693873141702</v>
+        <v>0.2072130780832453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01237841807200521</v>
+        <v>-0.1612138489654988</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7118101842701754</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DistCenter</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.05110113888493338</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01407017185678972</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.3610076919351</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.003692465615221257</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.008550807005624056</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.007500338239545093</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0009417307893497204</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7870421186081089</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.6626083386605626</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.09184025661028301</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1722225224856056</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7520897116679262</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-7.945827786693038e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4095299731193324</v>
+        <v>0.715096410791654</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,270 +684,179 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.282405189721579</v>
+        <v>-1.180117008175035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6379514543692162</v>
+        <v>0.008549356797973499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1515196204051129</v>
+        <v>0.2410183196224652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6328292309182824</v>
+        <v>8.430602881652223e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9320547555155483</v>
+        <v>0.0009964271514705486</v>
       </c>
       <c r="C4" t="n">
-        <v>3.227385188797016e-07</v>
+        <v>1.680369794858075e-51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.751397990193851</v>
+        <v>-0.007932532583664399</v>
       </c>
       <c r="C5" t="n">
-        <v>6.860640384058448e-05</v>
+        <v>0.01299261760782945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9447206012143925</v>
+        <v>0.5340420982252676</v>
       </c>
       <c r="C6" t="n">
-        <v>5.502685094813035e-06</v>
+        <v>1.149431811246351e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05167357510636766</v>
+        <v>0.6504953835968575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6663197415664505</v>
+        <v>6.718153975980291e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008883196468257521</v>
+        <v>0.2735149393874337</v>
       </c>
       <c r="C8" t="n">
-        <v>4.739618757289358e-39</v>
+        <v>0.104998812063609</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009876802555473593</v>
+        <v>-7.879096201869419e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002775796285415469</v>
+        <v>1.465535265220178e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5529574198813535</v>
+        <v>-0.003656157949204277</v>
       </c>
       <c r="C10" t="n">
-        <v>5.540442100743983e-07</v>
+        <v>0.9117548497355135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7381108982451334</v>
+        <v>0.06434354033236485</v>
       </c>
       <c r="C11" t="n">
-        <v>2.502074438488916e-09</v>
+        <v>0.000907940142742449</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3625743436304028</v>
+        <v>-1.46258838289843</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03630372793901705</v>
+        <v>0.0004363988597335157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.50032691344e-05</v>
+        <v>0.004789835160629141</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2508464523188014</v>
+        <v>0.1428281513629304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.881857715805819e-09</v>
+        <v>0.5911355222208635</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9095949870611051</v>
+        <v>0.06634582155134044</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001610775268903264</v>
+        <v>0.3435160150163739</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9616223198706871</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DistCenter</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.05595254861350532</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.007108704207640319</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.315452325355317</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.004467452414166665</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.003573269838574558</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2691929433905171</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.003367028175550923</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3524814432385364</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.7496885320542556</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05595962467319923</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.6111651060019075</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2626483734222046</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001030949406296839</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2800472280157218</v>
+        <v>0.4381851910562402</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,270 +902,179 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.069056281873921</v>
+        <v>-0.9064558594675505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07912662463644633</v>
+        <v>0.04745651771025943</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2589661579919217</v>
+        <v>0.2934435037026531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4338750800770835</v>
+        <v>2.037186341863873e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9945553481551985</v>
+        <v>0.0009738378278585713</v>
       </c>
       <c r="C4" t="n">
-        <v>1.100548287167383e-07</v>
+        <v>2.299383568145937e-48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8636592549857918</v>
+        <v>-0.007478258400920455</v>
       </c>
       <c r="C5" t="n">
-        <v>8.070568641878399e-06</v>
+        <v>0.01895752191903992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9869777166473934</v>
+        <v>0.6786561526321936</v>
       </c>
       <c r="C6" t="n">
-        <v>1.896440420167547e-06</v>
+        <v>1.284729164847562e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05407942315817137</v>
+        <v>0.5971370074416615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.663680601192251</v>
+        <v>9.258469511421936e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008551772771457872</v>
+        <v>0.1804503112239661</v>
       </c>
       <c r="C8" t="n">
-        <v>1.050514629184724e-35</v>
+        <v>0.2860762586559967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009687829662078724</v>
+        <v>-9.269665888532295e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003447331613645736</v>
+        <v>3.613299918299668e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6924454729325261</v>
+        <v>-0.001151020174615386</v>
       </c>
       <c r="C10" t="n">
-        <v>7.463895072299302e-10</v>
+        <v>0.9724426978683287</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6958417714235661</v>
+        <v>0.06006563488353143</v>
       </c>
       <c r="C11" t="n">
-        <v>2.625149535594818e-08</v>
+        <v>0.00185651601606115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2822992275657387</v>
+        <v>-1.424251262064417</v>
       </c>
       <c r="C12" t="n">
-        <v>0.104794525498153</v>
+        <v>0.0006935650498762752</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.060828273027881e-05</v>
+        <v>0.003831086905375301</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1996830003931113</v>
+        <v>0.2504054811455799</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.484809919578547e-08</v>
+        <v>0.3758474588487455</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6703538698417253</v>
+        <v>0.2501040815620733</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001451558632134601</v>
+        <v>-0.09913381753785859</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9657372412576365</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DistCenter</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.04532107333160579</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.02745625121890965</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.236914740849941</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.008519263345581221</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.007395773602059286</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.02132251051968234</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0003116225338089745</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.930602110675198</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.6854785001711979</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.08524909625138141</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.1921306432819596</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7271417955673835</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001304593410156365</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1789963056929488</v>
+        <v>0.8244113911092956</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,270 +1120,179 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8759904896507029</v>
+        <v>-1.022490606129272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1412857697787584</v>
+        <v>0.02284525629651707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04614755663888952</v>
+        <v>0.2856263083462234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8856638825180506</v>
+        <v>2.785882362080805e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9036897913646514</v>
+        <v>0.001031033660483349</v>
       </c>
       <c r="C4" t="n">
-        <v>1.462339091924437e-06</v>
+        <v>1.00463968440745e-52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7317684257685975</v>
+        <v>-0.007740902870967715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001477683463314682</v>
+        <v>0.01613947032773095</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9947342382162701</v>
+        <v>0.5918494215358224</v>
       </c>
       <c r="C6" t="n">
-        <v>2.315654965058502e-06</v>
+        <v>6.560361723842243e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02056995371914003</v>
+        <v>0.5720566155654768</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8698728328047828</v>
+        <v>2.363362653731101e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009144275949978468</v>
+        <v>0.213665618298883</v>
       </c>
       <c r="C8" t="n">
-        <v>1.065567528472978e-39</v>
+        <v>0.2061074568172137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009407664891640603</v>
+        <v>-8.812076667530799e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004775019642570691</v>
+        <v>1.560955999263999e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6135750182784857</v>
+        <v>-0.003697807488115193</v>
       </c>
       <c r="C10" t="n">
-        <v>2.599124076281704e-08</v>
+        <v>0.910740805804215</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6711496317499603</v>
+        <v>0.05503834108179333</v>
       </c>
       <c r="C11" t="n">
-        <v>7.244824804457725e-08</v>
+        <v>0.004369987428116586</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3196133793172387</v>
+        <v>-1.47561904857696</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06663679084137145</v>
+        <v>0.0004745399930618017</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.185277719452416e-05</v>
+        <v>0.003871899536070093</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4166644998563633</v>
+        <v>0.2290231643649993</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.632022304236915e-09</v>
+        <v>0.5055900726136837</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9625288309057227</v>
+        <v>0.1180686666248552</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.005702475911114742</v>
+        <v>0.0292536488236227</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8640625722962003</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DistCenter</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.03678563364813969</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07320048362189782</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.345798734905178</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.004003692039649163</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.008813354877521816</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.005939763613640676</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-7.48827740930909e-05</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9823797940623828</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.763510473301807</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05271011154054765</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.4151226325696168</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4459557229389604</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.000124662770588026</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.196031118407972</v>
+        <v>0.9473715760452155</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,270 +1338,179 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7462430170234023</v>
+        <v>-1.101998204680976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2173716817597487</v>
+        <v>0.01527650620112539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2802613732176844</v>
+        <v>0.2749956899474261</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3943679184569987</v>
+        <v>6.282515966043809e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9688873818610059</v>
+        <v>0.0009986493779105758</v>
       </c>
       <c r="C4" t="n">
-        <v>1.852321114785655e-07</v>
+        <v>2.20017531193981e-49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7761238511700668</v>
+        <v>-0.00841226893765068</v>
       </c>
       <c r="C5" t="n">
-        <v>4.901751217390991e-05</v>
+        <v>0.00895727704962581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.814212195012431</v>
+        <v>0.6010803910254182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001217076310159699</v>
+        <v>6.157485857637199e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.06407776859436336</v>
+        <v>0.6419500596410613</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6010300320555325</v>
+        <v>1.248579067095242e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008891848883106724</v>
+        <v>0.3023364169028172</v>
       </c>
       <c r="C8" t="n">
-        <v>1.641471363859698e-37</v>
+        <v>0.07551106243058489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009838045517903189</v>
+        <v>-8.625968004867631e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003165173002953542</v>
+        <v>2.151519936832622e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.621020246087979</v>
+        <v>-0.007910717981938641</v>
       </c>
       <c r="C10" t="n">
-        <v>2.649794681412781e-08</v>
+        <v>0.8142782006045869</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7175657463174676</v>
+        <v>0.06995420921008538</v>
       </c>
       <c r="C11" t="n">
-        <v>8.477782721249403e-09</v>
+        <v>0.0004309301237004833</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3900158302827115</v>
+        <v>-1.333669243825554</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02558623018458133</v>
+        <v>0.001329551261871225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.203028944611907e-05</v>
+        <v>0.004085065229370652</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4141502548848911</v>
+        <v>0.221227415222472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.281312670528596e-10</v>
+        <v>0.5747962784074688</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9899969420580732</v>
+        <v>0.07820977568031655</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.008208435411344906</v>
+        <v>0.0865687395335779</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8093932002924732</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DistCenter</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.05412067579997088</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01044282414527759</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.107421927227968</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01686868737806842</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.006784036251720114</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.03759537306035401</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0008961230821223872</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.801503563465354</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.7723556926212894</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05180532019119533</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.4805149799038491</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3776884573439967</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001376515781378548</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1530171586564741</v>
+        <v>0.8448048367306221</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2011,270 +1556,179 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7807938503552682</v>
+        <v>-0.9142844268452528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1903699903689101</v>
+        <v>0.04059058577062073</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07547567139465254</v>
+        <v>0.2472197430346322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8154531719635461</v>
+        <v>6.821123140379646e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8554772205382376</v>
+        <v>0.001071335927143416</v>
       </c>
       <c r="C4" t="n">
-        <v>3.945611076320112e-06</v>
+        <v>5.761839654830202e-54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.71711311842796</v>
+        <v>-0.007995020935056898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001690431867521966</v>
+        <v>0.01361116498379679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8209151525864591</v>
+        <v>0.650866771469584</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001079069348610308</v>
+        <v>4.660957498717439e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01941067791442047</v>
+        <v>0.555953551702109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8738677246709585</v>
+        <v>6.065465664435404e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000967187209270529</v>
+        <v>0.1520174213209623</v>
       </c>
       <c r="C8" t="n">
-        <v>6.807816288087683e-42</v>
+        <v>0.3802343132941685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00986241211826374</v>
+        <v>-8.964798233062836e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00334384552443532</v>
+        <v>1.21643921210491e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6564338990761435</v>
+        <v>-0.001134511835734987</v>
       </c>
       <c r="C10" t="n">
-        <v>4.224378932066125e-09</v>
+        <v>0.9734010046901361</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6471069716751013</v>
+        <v>0.07158450752293287</v>
       </c>
       <c r="C11" t="n">
-        <v>3.06559664246623e-07</v>
+        <v>0.00034379855326788</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2475572167852249</v>
+        <v>-1.392936246488917</v>
       </c>
       <c r="C12" t="n">
-        <v>0.164139188816503</v>
+        <v>0.0009659055776856808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.831872361881428e-05</v>
+        <v>0.002250350823157247</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6409341488076099</v>
+        <v>0.4791566474295436</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.35042839581977e-09</v>
+        <v>0.4848134612075165</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7846865168378336</v>
+        <v>0.1381316878862815</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001368836031609474</v>
+        <v>0.1105345461457445</v>
       </c>
       <c r="C15" t="n">
-        <v>0.968168309845182</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DistCenter</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.05378897779896388</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01134378935263846</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.081099684235525</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02103649406126203</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.006609346838326502</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0402277495104565</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0006985150422672962</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8380682629059657</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.6077476065053217</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1259212992296549</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.6097992560906325</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2664243174615538</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001811467333519254</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0632663858839595</v>
+        <v>0.8029503215744481</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +1742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,270 +1774,179 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.883351576645155</v>
+        <v>-1.000725895087203</v>
       </c>
       <c r="C2" t="n">
-        <v>0.14623522837687</v>
+        <v>0.02908271730016484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2184716222021323</v>
+        <v>0.2465500568763607</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4999585630595407</v>
+        <v>6.440062320028061e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.901494617085897</v>
+        <v>0.001036056909395713</v>
       </c>
       <c r="C4" t="n">
-        <v>1.238788763955989e-06</v>
+        <v>7.784090111750189e-53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.742771244401509</v>
+        <v>-0.0073891853056517</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001027515142857398</v>
+        <v>0.02153947952197095</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9129259530014833</v>
+        <v>0.5413415112841703</v>
       </c>
       <c r="C6" t="n">
-        <v>1.004716868852737e-05</v>
+        <v>9.863750003421731e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.04914278144272961</v>
+        <v>0.6209022312462216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6877444920318928</v>
+        <v>3.410927980951001e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0009278107260929953</v>
+        <v>0.2918965407741167</v>
       </c>
       <c r="C8" t="n">
-        <v>2.07150957427212e-40</v>
+        <v>0.08813162751528131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.009095978786465833</v>
+        <v>-8.254564039846659e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006287751608923434</v>
+        <v>6.829914724005154e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5563280410715686</v>
+        <v>-0.001796340630721971</v>
       </c>
       <c r="C10" t="n">
-        <v>5.826530871620452e-07</v>
+        <v>0.9577653682903893</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7013398067158155</v>
+        <v>0.06167232741765982</v>
       </c>
       <c r="C11" t="n">
-        <v>1.997317317626333e-08</v>
+        <v>0.001765059671761069</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3813514564378364</v>
+        <v>-1.607833962651239</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02987093844669724</v>
+        <v>0.000140864257457855</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.930468985159216e-05</v>
+        <v>0.004137875020116198</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08305014696047003</v>
+        <v>0.217618037837369</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.09877075951343e-08</v>
+        <v>0.3745037888727631</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5510800180949621</v>
+        <v>0.2521849997929735</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.004680783181544073</v>
+        <v>-0.0002287275075170127</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8914643378138158</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DistCenter</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.04757212503064177</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.02277698602608021</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.622734426739775</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005145340285027671</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.0080190145695086</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01296471875223212</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3.975344130732636e-05</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.991086613163212</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.7698298880038942</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05388096587496249</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.04010618825077526</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9422302300891302</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-2.775371306018816e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7721732416977373</v>
+        <v>0.9995923141776106</v>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +1960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2629,270 +1992,179 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.880260334702717</v>
+        <v>-1.096653669588616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1397586920571119</v>
+        <v>0.0148090596261905</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1283747863516164</v>
+        <v>0.2820486326404834</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6918903536768348</v>
+        <v>6.507095416996491e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.023834465238183</v>
+        <v>0.00100024319015143</v>
       </c>
       <c r="C4" t="n">
-        <v>3.89347894750427e-08</v>
+        <v>4.51496748394278e-51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.841324939177547</v>
+        <v>-0.006826551060359083</v>
       </c>
       <c r="C5" t="n">
-        <v>1.115411885519446e-05</v>
+        <v>0.03231859471874551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8953133804763206</v>
+        <v>0.5971388603183752</v>
       </c>
       <c r="C6" t="n">
-        <v>2.170365731274481e-05</v>
+        <v>6.054769614465224e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05751915122491337</v>
+        <v>0.6432246185986665</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6440152052476271</v>
+        <v>1.122300346275402e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008923530250908016</v>
+        <v>0.2435521167045206</v>
       </c>
       <c r="C8" t="n">
-        <v>5.855686103925169e-39</v>
+        <v>0.1503985133633349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.008773835459475141</v>
+        <v>-8.076952057451772e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008184056334875765</v>
+        <v>1.038846479202141e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6137327509080795</v>
+        <v>-0.02068064863429996</v>
       </c>
       <c r="C10" t="n">
-        <v>3.187606884114233e-08</v>
+        <v>0.5313924294126091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7336033837037875</v>
+        <v>0.05884854476921204</v>
       </c>
       <c r="C11" t="n">
-        <v>4.209342147217017e-09</v>
+        <v>0.002677683996859187</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3500303834312133</v>
+        <v>-1.7944587192446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04512532359991291</v>
+        <v>2.301814068708371e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.044748808726691e-05</v>
+        <v>0.00419493680069446</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4411802503390442</v>
+        <v>0.1991484679045481</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.059814484659516e-09</v>
+        <v>0.617904076994284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.976100619415053</v>
+        <v>0.05669845178800111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02058191232237621</v>
+        <v>-0.008516741504599488</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5382238419766601</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DistCenter</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.04413033927667254</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0337605598223232</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.666685062869166</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0003925628063892262</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.007421714815735616</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.02026135485606936</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0005358149711820715</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.876823667206464</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8176631258231498</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.03868891078853139</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.3736951236681861</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4946087983000271</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001051270571223106</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2760718822287366</v>
+        <v>0.9846601296069567</v>
       </c>
     </row>
   </sheetData>
@@ -2906,7 +2178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,270 +2210,179 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.021482239201063</v>
+        <v>-0.887039249267573</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09071594199384092</v>
+        <v>0.04766444737019446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1941878446062356</v>
+        <v>0.2896452562449132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5532866252053797</v>
+        <v>2.82914224297549e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9593604662059212</v>
+        <v>0.00100536012864782</v>
       </c>
       <c r="C4" t="n">
-        <v>3.179064524318294e-07</v>
+        <v>5.437425561954164e-50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8002407413895742</v>
+        <v>-0.00856051881770283</v>
       </c>
       <c r="C5" t="n">
-        <v>3.389714929408004e-05</v>
+        <v>0.007230697199070602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.9510996038557407</v>
+        <v>0.6192250079377084</v>
       </c>
       <c r="C6" t="n">
-        <v>5.606871895031648e-06</v>
+        <v>1.999179080861469e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.03502060000498107</v>
+        <v>0.5971912749845305</v>
       </c>
       <c r="C7" t="n">
-        <v>0.778988667132389</v>
+        <v>1.060239767259732e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0008953682852014914</v>
+        <v>0.3210480519014944</v>
       </c>
       <c r="C8" t="n">
-        <v>6.230239534194325e-38</v>
+        <v>0.05687621504211732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.01027746775129882</v>
+        <v>-9.607125024534523e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001867518132764955</v>
+        <v>1.776390422851281e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6312149960284449</v>
+        <v>0.008191992195178157</v>
       </c>
       <c r="C10" t="n">
-        <v>1.316882042488396e-08</v>
+        <v>0.804933144461905</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6937430606894518</v>
+        <v>0.05147817305307953</v>
       </c>
       <c r="C11" t="n">
-        <v>3.65981355345181e-08</v>
+        <v>0.007003645759423092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4091117894869643</v>
+        <v>-1.306283057419839</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01823207733681999</v>
+        <v>0.001937931278735921</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.051673503919984e-05</v>
+        <v>0.002855396416362026</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2994613196358544</v>
+        <v>0.3719276444767128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.139703419134766e-08</v>
+        <v>0.5419408399333158</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7343393368019452</v>
+        <v>0.09649426089106049</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.008495920270744582</v>
+        <v>0.09799110255539614</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8002740586097987</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>DistCenter</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.03898879069163224</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05571968367148598</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>bike_lane_share</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.171014317193096</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01197633279609517</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.007022696131806161</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.02973357315978437</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0008260765231555671</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8133126835122515</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.6703486821248291</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0888191545870005</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5283762715582903</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3312562228308057</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-9.674819744253878e-05</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.3139419891785925</v>
+        <v>0.8254092516724238</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/France_other.xlsx
+++ b/outputs/ML_Results/carown_LR_new/France_other.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9022741718529003</v>
+        <v>-0.9022741718528938</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04606382145275922</v>
+        <v>0.04606382145276056</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2654953494154892</v>
+        <v>0.265495349415489</v>
       </c>
       <c r="C3" t="n">
-        <v>1.02109913108611e-06</v>
+        <v>1.021099131086136e-06</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009883403203802775</v>
+        <v>0.0009883403203802773</v>
       </c>
       <c r="C4" t="n">
-        <v>1.821870921855563e-50</v>
+        <v>1.8218709218559e-50</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007344397069506936</v>
+        <v>-0.007344397069506972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02074630260279798</v>
+        <v>0.02074630260279732</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6105200634913563</v>
+        <v>0.6105200634913562</v>
       </c>
       <c r="C6" t="n">
         <v>3.429849635777956e-08</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6446353610839173</v>
+        <v>0.6446353610839176</v>
       </c>
       <c r="C7" t="n">
-        <v>7.905572699396974e-08</v>
+        <v>7.905572699396859e-08</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1877738285523578</v>
+        <v>0.1877738285523591</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2639392454290973</v>
+        <v>0.2639392454290935</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.725336737102831e-05</v>
+        <v>-0.00872533673710287</v>
       </c>
       <c r="C9" t="n">
-        <v>1.905485324452592e-06</v>
+        <v>1.905485324452356e-06</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.01207835052879324</v>
+        <v>-0.01207835052879283</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7159130252544639</v>
+        <v>0.7159130252544734</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06828637221086895</v>
+        <v>0.06828637221086883</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004880346212859287</v>
+        <v>0.0004880346212859428</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.427134626149965</v>
+        <v>-0.01427134626149957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006993921350176076</v>
+        <v>0.0006993921350176559</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003313266561422312</v>
+        <v>0.003313266561422249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3153647724993436</v>
+        <v>0.3153647724993517</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4088083049840874</v>
+        <v>0.004088083049840907</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2072130780832453</v>
+        <v>0.20721307808324</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1612138489654988</v>
+        <v>-0.001612138489654963</v>
       </c>
       <c r="C15" t="n">
-        <v>0.715096410791654</v>
+        <v>0.7150964107916582</v>
       </c>
     </row>
   </sheetData>
@@ -684,10 +684,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.180117008175035</v>
+        <v>-1.180117008175027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008549356797973499</v>
+        <v>0.00854935679797379</v>
       </c>
     </row>
     <row r="3">
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2410183196224652</v>
+        <v>0.2410183196224654</v>
       </c>
       <c r="C3" t="n">
-        <v>8.430602881652223e-06</v>
+        <v>8.430602881652176e-06</v>
       </c>
     </row>
     <row r="4">
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009964271514705486</v>
+        <v>0.0009964271514705482</v>
       </c>
       <c r="C4" t="n">
-        <v>1.680369794858075e-51</v>
+        <v>1.680369794858218e-51</v>
       </c>
     </row>
     <row r="5">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007932532583664399</v>
+        <v>-0.007932532583664408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01299261760782945</v>
+        <v>0.0129926176078293</v>
       </c>
     </row>
     <row r="6">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5340420982252676</v>
+        <v>0.5340420982252678</v>
       </c>
       <c r="C6" t="n">
-        <v>1.149431811246351e-06</v>
+        <v>1.149431811246345e-06</v>
       </c>
     </row>
     <row r="7">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6504953835968575</v>
+        <v>0.650495383596858</v>
       </c>
       <c r="C7" t="n">
-        <v>6.718153975980291e-08</v>
+        <v>6.718153975980153e-08</v>
       </c>
     </row>
     <row r="8">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2735149393874337</v>
+        <v>0.2735149393874343</v>
       </c>
       <c r="C8" t="n">
-        <v>0.104998812063609</v>
+        <v>0.1049988120636084</v>
       </c>
     </row>
     <row r="9">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.879096201869419e-05</v>
+        <v>-0.007879096201869436</v>
       </c>
       <c r="C9" t="n">
-        <v>1.465535265220178e-05</v>
+        <v>1.46553526522014e-05</v>
       </c>
     </row>
     <row r="10">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.003656157949204277</v>
+        <v>-0.003656157949204182</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9117548497355135</v>
+        <v>0.9117548497355157</v>
       </c>
     </row>
     <row r="11">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06434354033236485</v>
+        <v>0.06434354033236481</v>
       </c>
       <c r="C11" t="n">
         <v>0.000907940142742449</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.46258838289843</v>
+        <v>-0.01462588382898428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004363988597335157</v>
+        <v>0.0004363988597335221</v>
       </c>
     </row>
     <row r="13">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004789835160629141</v>
+        <v>0.00478983516062907</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1428281513629304</v>
+        <v>0.1428281513629322</v>
       </c>
     </row>
     <row r="14">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5911355222208635</v>
+        <v>0.005911355222208619</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06634582155134044</v>
+        <v>0.06634582155134207</v>
       </c>
     </row>
     <row r="15">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3435160150163739</v>
+        <v>0.003435160150163713</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4381851910562402</v>
+        <v>0.4381851910562448</v>
       </c>
     </row>
   </sheetData>
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9064558594675505</v>
+        <v>-0.9064558594675554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04745651771025943</v>
+        <v>0.04745651771026241</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2934435037026531</v>
+        <v>0.2934435037026529</v>
       </c>
       <c r="C3" t="n">
-        <v>2.037186341863873e-07</v>
+        <v>2.03718634186394e-07</v>
       </c>
     </row>
     <row r="4">
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0009738378278585713</v>
+        <v>0.0009738378278585715</v>
       </c>
       <c r="C4" t="n">
-        <v>2.299383568145937e-48</v>
+        <v>2.299383568145772e-48</v>
       </c>
     </row>
     <row r="5">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007478258400920455</v>
+        <v>-0.007478258400920428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01895752191903992</v>
+        <v>0.01895752191904045</v>
       </c>
     </row>
     <row r="6">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5971370074416615</v>
+        <v>0.5971370074416612</v>
       </c>
       <c r="C7" t="n">
-        <v>9.258469511421936e-07</v>
+        <v>9.258469511422123e-07</v>
       </c>
     </row>
     <row r="8">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1804503112239661</v>
+        <v>0.1804503112239649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2860762586559967</v>
+        <v>0.2860762586560001</v>
       </c>
     </row>
     <row r="9">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.269665888532295e-05</v>
+        <v>-0.009269665888532294</v>
       </c>
       <c r="C9" t="n">
-        <v>3.613299918299668e-07</v>
+        <v>3.613299918300182e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.001151020174615386</v>
+        <v>-0.001151020174615343</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9724426978683287</v>
+        <v>0.9724426978683297</v>
       </c>
     </row>
     <row r="11">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06006563488353143</v>
+        <v>0.06006563488353154</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00185651601606115</v>
+        <v>0.001856516016061118</v>
       </c>
     </row>
     <row r="12">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.424251262064417</v>
+        <v>-0.01424251262064415</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006935650498762752</v>
+        <v>0.0006935650498762799</v>
       </c>
     </row>
     <row r="13">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003831086905375301</v>
+        <v>0.003831086905375306</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2504054811455799</v>
+        <v>0.2504054811455836</v>
       </c>
     </row>
     <row r="14">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3758474588487455</v>
+        <v>0.003758474588487492</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2501040815620733</v>
+        <v>0.2501040815620689</v>
       </c>
     </row>
     <row r="15">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.09913381753785859</v>
+        <v>-0.0009913381753785362</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8244113911092956</v>
+        <v>0.8244113911093052</v>
       </c>
     </row>
   </sheetData>
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.022490606129272</v>
+        <v>-1.022490606129278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02284525629651707</v>
+        <v>0.02284525629651811</v>
       </c>
     </row>
     <row r="3">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2856263083462234</v>
+        <v>0.2856263083462232</v>
       </c>
       <c r="C3" t="n">
-        <v>2.785882362080805e-07</v>
+        <v>2.785882362080842e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001031033660483349</v>
+        <v>0.00103103366048335</v>
       </c>
       <c r="C4" t="n">
-        <v>1.00463968440745e-52</v>
+        <v>1.004639684407378e-52</v>
       </c>
     </row>
     <row r="5">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007740902870967715</v>
+        <v>-0.007740902870967719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01613947032773095</v>
+        <v>0.01613947032773094</v>
       </c>
     </row>
     <row r="6">
@@ -1175,7 +1175,7 @@
         <v>0.5918494215358224</v>
       </c>
       <c r="C6" t="n">
-        <v>6.560361723842243e-08</v>
+        <v>6.560361723842172e-08</v>
       </c>
     </row>
     <row r="7">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5720566155654768</v>
+        <v>0.5720566155654767</v>
       </c>
       <c r="C7" t="n">
-        <v>2.363362653731101e-06</v>
+        <v>2.363362653731111e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.213665618298883</v>
+        <v>0.2136656182988829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2061074568172137</v>
+        <v>0.2061074568172138</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.812076667530799e-05</v>
+        <v>-0.008812076667530769</v>
       </c>
       <c r="C9" t="n">
-        <v>1.560955999263999e-06</v>
+        <v>1.560955999264083e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.003697807488115193</v>
+        <v>-0.003697807488115397</v>
       </c>
       <c r="C10" t="n">
-        <v>0.910740805804215</v>
+        <v>0.9107408058042101</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05503834108179333</v>
+        <v>0.05503834108179338</v>
       </c>
       <c r="C11" t="n">
         <v>0.004369987428116586</v>
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.47561904857696</v>
+        <v>-0.01475619048576966</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004745399930618017</v>
+        <v>0.0004745399930617749</v>
       </c>
     </row>
     <row r="13">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003871899536070093</v>
+        <v>0.003871899536070162</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2290231643649993</v>
+        <v>0.2290231643649943</v>
       </c>
     </row>
     <row r="14">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5055900726136837</v>
+        <v>0.005055900726136828</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1180686666248552</v>
+        <v>0.1180686666248576</v>
       </c>
     </row>
     <row r="15">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0292536488236227</v>
+        <v>0.0002925364882362386</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9473715760452155</v>
+        <v>0.9473715760452137</v>
       </c>
     </row>
   </sheetData>
@@ -1338,10 +1338,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.101998204680976</v>
+        <v>-1.101998204680968</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01527650620112539</v>
+        <v>0.01527650620112651</v>
       </c>
     </row>
     <row r="3">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2749956899474261</v>
+        <v>0.2749956899474262</v>
       </c>
       <c r="C3" t="n">
-        <v>6.282515966043809e-07</v>
+        <v>6.282515966043764e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1367,7 +1367,7 @@
         <v>0.0009986493779105758</v>
       </c>
       <c r="C4" t="n">
-        <v>2.20017531193981e-49</v>
+        <v>2.200175311939244e-49</v>
       </c>
     </row>
     <row r="5">
@@ -1377,10 +1377,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00841226893765068</v>
+        <v>-0.008412268937650699</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00895727704962581</v>
+        <v>0.008957277049625453</v>
       </c>
     </row>
     <row r="6">
@@ -1393,7 +1393,7 @@
         <v>0.6010803910254182</v>
       </c>
       <c r="C6" t="n">
-        <v>6.157485857637199e-08</v>
+        <v>6.157485857637222e-08</v>
       </c>
     </row>
     <row r="7">
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6419500596410613</v>
+        <v>0.6419500596410612</v>
       </c>
       <c r="C7" t="n">
-        <v>1.248579067095242e-07</v>
+        <v>1.248579067095246e-07</v>
       </c>
     </row>
     <row r="8">
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3023364169028172</v>
+        <v>0.3023364169028177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07551106243058489</v>
+        <v>0.07551106243058398</v>
       </c>
     </row>
     <row r="9">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.625968004867631e-05</v>
+        <v>-0.00862596800486764</v>
       </c>
       <c r="C9" t="n">
-        <v>2.151519936832622e-06</v>
+        <v>2.151519936832837e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.007910717981938641</v>
+        <v>-0.007910717981938679</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8142782006045869</v>
+        <v>0.8142782006045859</v>
       </c>
     </row>
     <row r="11">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06995420921008538</v>
+        <v>0.06995420921008527</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004309301237004833</v>
+        <v>0.0004309301237004866</v>
       </c>
     </row>
     <row r="12">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.333669243825554</v>
+        <v>-0.01333669243825554</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001329551261871225</v>
+        <v>0.001329551261871269</v>
       </c>
     </row>
     <row r="13">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004085065229370652</v>
+        <v>0.00408506522937061</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221227415222472</v>
+        <v>0.2212274152224775</v>
       </c>
     </row>
     <row r="14">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5747962784074688</v>
+        <v>0.005747962784074637</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07820977568031655</v>
+        <v>0.07820977568032081</v>
       </c>
     </row>
     <row r="15">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0865687395335779</v>
+        <v>0.00086568739533572</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8448048367306221</v>
+        <v>0.8448048367306324</v>
       </c>
     </row>
   </sheetData>
@@ -1556,10 +1556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9142844268452528</v>
+        <v>-0.9142844268452549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04059058577062073</v>
+        <v>0.04059058577062116</v>
       </c>
     </row>
     <row r="3">
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2472197430346322</v>
+        <v>0.2472197430346327</v>
       </c>
       <c r="C3" t="n">
-        <v>6.821123140379646e-06</v>
+        <v>6.821123140379431e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.007995020935056898</v>
+        <v>-0.007995020935056895</v>
       </c>
       <c r="C5" t="n">
         <v>0.01361116498379679</v>
@@ -1608,10 +1608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.650866771469584</v>
+        <v>0.6508667714695843</v>
       </c>
       <c r="C6" t="n">
-        <v>4.660957498717439e-09</v>
+        <v>4.660957498717523e-09</v>
       </c>
     </row>
     <row r="7">
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.555953551702109</v>
+        <v>0.5559535517021089</v>
       </c>
       <c r="C7" t="n">
-        <v>6.065465664435404e-06</v>
+        <v>6.065465664435416e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1520174213209623</v>
+        <v>0.1520174213209624</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3802343132941685</v>
+        <v>0.3802343132941677</v>
       </c>
     </row>
     <row r="9">
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.964798233062836e-05</v>
+        <v>-0.008964798233062834</v>
       </c>
       <c r="C9" t="n">
-        <v>1.21643921210491e-06</v>
+        <v>1.216439212104906e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.001134511835734987</v>
+        <v>-0.001134511835734942</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9734010046901361</v>
+        <v>0.9734010046901372</v>
       </c>
     </row>
     <row r="11">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07158450752293287</v>
+        <v>0.07158450752293295</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00034379855326788</v>
+        <v>0.0003437985532678783</v>
       </c>
     </row>
     <row r="12">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.392936246488917</v>
+        <v>-0.01392936246488915</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0009659055776856808</v>
+        <v>0.0009659055776856906</v>
       </c>
     </row>
     <row r="13">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002250350823157247</v>
+        <v>0.002250350823157237</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4791566474295436</v>
+        <v>0.479156647429547</v>
       </c>
     </row>
     <row r="14">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4848134612075165</v>
+        <v>0.004848134612075177</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1381316878862815</v>
+        <v>0.1381316878862801</v>
       </c>
     </row>
     <row r="15">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1105345461457445</v>
+        <v>0.001105345461457466</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8029503215744481</v>
+        <v>0.8029503215744447</v>
       </c>
     </row>
   </sheetData>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.000725895087203</v>
+        <v>-1.000725895087202</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02908271730016484</v>
+        <v>0.02908271730016577</v>
       </c>
     </row>
     <row r="3">
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2465500568763607</v>
+        <v>0.2465500568763609</v>
       </c>
       <c r="C3" t="n">
-        <v>6.440062320028061e-06</v>
+        <v>6.440062320027966e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1803,7 +1803,7 @@
         <v>0.001036056909395713</v>
       </c>
       <c r="C4" t="n">
-        <v>7.784090111750189e-53</v>
+        <v>7.784090111750744e-53</v>
       </c>
     </row>
     <row r="5">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0073891853056517</v>
+        <v>-0.007389185305651694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02153947952197095</v>
+        <v>0.02153947952197077</v>
       </c>
     </row>
     <row r="6">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5413415112841703</v>
+        <v>0.5413415112841702</v>
       </c>
       <c r="C6" t="n">
         <v>9.863750003421731e-07</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6209022312462216</v>
+        <v>0.6209022312462215</v>
       </c>
       <c r="C7" t="n">
-        <v>3.410927980951001e-07</v>
+        <v>3.410927980951021e-07</v>
       </c>
     </row>
     <row r="8">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2918965407741167</v>
+        <v>0.2918965407741164</v>
       </c>
       <c r="C8" t="n">
         <v>0.08813162751528131</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.254564039846659e-05</v>
+        <v>-0.008254564039846654</v>
       </c>
       <c r="C9" t="n">
-        <v>6.829914724005154e-06</v>
+        <v>6.829914724005497e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1878,10 +1878,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.001796340630721971</v>
+        <v>-0.001796340630722102</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9577653682903893</v>
+        <v>0.9577653682903863</v>
       </c>
     </row>
     <row r="11">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06167232741765982</v>
+        <v>0.06167232741765979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001765059671761069</v>
+        <v>0.001765059671761098</v>
       </c>
     </row>
     <row r="12">
@@ -1904,10 +1904,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.607833962651239</v>
+        <v>-0.0160783396265124</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000140864257457855</v>
+        <v>0.0001408642574578553</v>
       </c>
     </row>
     <row r="13">
@@ -1917,10 +1917,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004137875020116198</v>
+        <v>0.004137875020116202</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217618037837369</v>
+        <v>0.2176180378373684</v>
       </c>
     </row>
     <row r="14">
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3745037888727631</v>
+        <v>0.003745037888727623</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2521849997929735</v>
+        <v>0.2521849997929743</v>
       </c>
     </row>
     <row r="15">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002287275075170127</v>
+        <v>-2.287275075191531e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9995923141776106</v>
+        <v>0.9995923141776069</v>
       </c>
     </row>
   </sheetData>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.096653669588616</v>
+        <v>-1.096653669588614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0148090596261905</v>
+        <v>0.01480905962619134</v>
       </c>
     </row>
     <row r="3">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2820486326404834</v>
+        <v>0.2820486326404831</v>
       </c>
       <c r="C3" t="n">
-        <v>6.507095416996491e-07</v>
+        <v>6.507095416996696e-07</v>
       </c>
     </row>
     <row r="4">
@@ -2021,7 +2021,7 @@
         <v>0.00100024319015143</v>
       </c>
       <c r="C4" t="n">
-        <v>4.51496748394278e-51</v>
+        <v>4.514967483943424e-51</v>
       </c>
     </row>
     <row r="5">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.006826551060359083</v>
+        <v>-0.006826551060359089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03231859471874551</v>
+        <v>0.03231859471874543</v>
       </c>
     </row>
     <row r="6">
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5971388603183752</v>
+        <v>0.5971388603183754</v>
       </c>
       <c r="C6" t="n">
         <v>6.054769614465224e-08</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6432246185986665</v>
+        <v>0.643224618598666</v>
       </c>
       <c r="C7" t="n">
-        <v>1.122300346275402e-07</v>
+        <v>1.122300346275437e-07</v>
       </c>
     </row>
     <row r="8">
@@ -2070,10 +2070,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2435521167045206</v>
+        <v>0.2435521167045201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1503985133633349</v>
+        <v>0.150398513363336</v>
       </c>
     </row>
     <row r="9">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.076952057451772e-05</v>
+        <v>-0.008076952057451774</v>
       </c>
       <c r="C9" t="n">
-        <v>1.038846479202141e-05</v>
+        <v>1.03884647920216e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02068064863429996</v>
+        <v>-0.02068064863429995</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5313924294126091</v>
+        <v>0.5313924294126093</v>
       </c>
     </row>
     <row r="11">
@@ -2109,10 +2109,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05884854476921204</v>
+        <v>0.05884854476921205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002677683996859187</v>
+        <v>0.002677683996859144</v>
       </c>
     </row>
     <row r="12">
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.7944587192446</v>
+        <v>-0.01794458719244599</v>
       </c>
       <c r="C12" t="n">
-        <v>2.301814068708371e-05</v>
+        <v>2.301814068708461e-05</v>
       </c>
     </row>
     <row r="13">
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00419493680069446</v>
+        <v>0.004194936800694446</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1991484679045481</v>
+        <v>0.1991484679045525</v>
       </c>
     </row>
     <row r="14">
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.617904076994284</v>
+        <v>0.006179040769942841</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05669845178800111</v>
+        <v>0.05669845178800156</v>
       </c>
     </row>
     <row r="15">
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.008516741504599488</v>
+        <v>-8.51674150460096e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9846601296069567</v>
+        <v>0.984660129606954</v>
       </c>
     </row>
   </sheetData>
@@ -2210,10 +2210,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.887039249267573</v>
+        <v>-0.8870392492675762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04766444737019446</v>
+        <v>0.04766444737019875</v>
       </c>
     </row>
     <row r="3">
@@ -2226,7 +2226,7 @@
         <v>0.2896452562449132</v>
       </c>
       <c r="C3" t="n">
-        <v>2.82914224297549e-07</v>
+        <v>2.829142242975433e-07</v>
       </c>
     </row>
     <row r="4">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00100536012864782</v>
+        <v>0.001005360128647821</v>
       </c>
       <c r="C4" t="n">
-        <v>5.437425561954164e-50</v>
+        <v>5.437425561953158e-50</v>
       </c>
     </row>
     <row r="5">
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.00856051881770283</v>
+        <v>-0.008560518817702806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007230697199070602</v>
+        <v>0.007230697199070732</v>
       </c>
     </row>
     <row r="6">
@@ -2262,10 +2262,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6192250079377084</v>
+        <v>0.6192250079377086</v>
       </c>
       <c r="C6" t="n">
-        <v>1.999179080861469e-08</v>
+        <v>1.999179080861421e-08</v>
       </c>
     </row>
     <row r="7">
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5971912749845305</v>
+        <v>0.5971912749845298</v>
       </c>
       <c r="C7" t="n">
-        <v>1.060239767259732e-06</v>
+        <v>1.060239767259756e-06</v>
       </c>
     </row>
     <row r="8">
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3210480519014944</v>
+        <v>0.3210480519014931</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05687621504211732</v>
+        <v>0.05687621504211834</v>
       </c>
     </row>
     <row r="9">
@@ -2301,10 +2301,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-9.607125024534523e-05</v>
+        <v>-0.009607125024534488</v>
       </c>
       <c r="C9" t="n">
-        <v>1.776390422851281e-07</v>
+        <v>1.776390422851594e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.008191992195178157</v>
+        <v>0.008191992195177841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.804933144461905</v>
+        <v>0.8049331444619124</v>
       </c>
     </row>
     <row r="11">
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05147817305307953</v>
+        <v>0.05147817305307962</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007003645759423092</v>
+        <v>0.007003645759423026</v>
       </c>
     </row>
     <row r="12">
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.306283057419839</v>
+        <v>-0.01306283057419844</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001937931278735921</v>
+        <v>0.001937931278735863</v>
       </c>
     </row>
     <row r="13">
@@ -2353,10 +2353,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002855396416362026</v>
+        <v>0.002855396416362072</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3719276444767128</v>
+        <v>0.3719276444767113</v>
       </c>
     </row>
     <row r="14">
@@ -2366,10 +2366,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5419408399333158</v>
+        <v>0.005419408399333103</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09649426089106049</v>
+        <v>0.09649426089106551</v>
       </c>
     </row>
     <row r="15">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09799110255539614</v>
+        <v>0.0009799110255539253</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8254092516724238</v>
+        <v>0.8254092516724313</v>
       </c>
     </row>
   </sheetData>
